--- a/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6F44A42-5862-420B-B446-F4A6F733BC4B}"/>
+  <xr:revisionPtr revIDLastSave="563" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455DB068-2DBC-4826-84EC-52DF8E1E6DDE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>@{allCheckSystems}</t>
+  </si>
+  <si>
+    <t>STEP,CLM</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
@@ -913,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -941,13 +944,13 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="O5" s="7"/>
     </row>
@@ -1126,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>1</v>

--- a/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="563" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455DB068-2DBC-4826-84EC-52DF8E1E6DDE}"/>
+  <xr:revisionPtr revIDLastSave="891" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3628D8F1-69D8-40C6-B204-AEFEAEE750B6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="69">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -113,15 +113,6 @@
     <t>GBR</t>
   </si>
   <si>
-    <t>URL HS</t>
-  </si>
-  <si>
-    <t>Impossible de passer la validation de création à cause du captcha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incident car redirection sur URL FRA </t>
-  </si>
-  <si>
     <t>UC9_SFCC_Create_Account_POL_UAT</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>${email}</t>
   </si>
   <si>
-    <t>${password}</t>
-  </si>
-  <si>
     <t>${birthDate}</t>
   </si>
   <si>
@@ -159,13 +147,109 @@
   </si>
   <si>
     <t>STEP,CLM</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>UC10_SFCC_Create_Account_AUT_UAT</t>
+  </si>
+  <si>
+    <t>UC11_SFCC_Create_Account_PRT_UAT</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>UC13_SFCC_Create_Account_ZAF_UAT</t>
+  </si>
+  <si>
+    <t>UC12_SFCC_Create_Account_ESP_UAT</t>
+  </si>
+  <si>
+    <t>UC14_SFCC_Create_Account_CAN_UAT</t>
+  </si>
+  <si>
+    <t>UC15_SFCC_Create_Account_AUS_UAT</t>
+  </si>
+  <si>
+    <t>UC16_SFCC_Create_Account_JPN_UAT</t>
+  </si>
+  <si>
+    <t>UC17_SFCC_Create_Account_SGP_UAT</t>
+  </si>
+  <si>
+    <t>UC18_SFCC_Create_Account_IRL_UAT</t>
+  </si>
+  <si>
+    <t>UC19_SFCC_Create_Account_DEU_UAT</t>
+  </si>
+  <si>
+    <t>UC20_SFCC_Create_Account_HKG_UAT</t>
+  </si>
+  <si>
+    <t>captcha</t>
+  </si>
+  <si>
+    <t>captcha, pas de phone number</t>
+  </si>
+  <si>
+    <t>popup, pas de phonenumber</t>
+  </si>
+  <si>
+    <t>no phone number</t>
+  </si>
+  <si>
+    <t>pas de loyalty</t>
+  </si>
+  <si>
+    <t>no phone number, need to click on email to create the account(yopmail)</t>
+  </si>
+  <si>
+    <t>UC21_SFCC_Create_Account_NZL_UAT</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_ARE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,42 +268,41 @@
       <name val="Aptos Narrow (Corps)"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
+      <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFBCBEC4"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -260,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -283,26 +366,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,11 +433,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -396,6 +518,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,463 +841,1001 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="80.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="58.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" s="20" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="M10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="M11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.399999999999999">
-      <c r="O13" s="12"/>
+      <c r="M12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="L31" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L10">
+  <conditionalFormatting sqref="B2:K20 B21:H22 I21:K23 B23:G23">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1180,23 +1844,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="N3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="957" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57860710-77BB-4D26-9525-73DA6E3BCEC8}"/>
+  <xr:revisionPtr revIDLastSave="971" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79B7FD0F-0B09-4073-B20E-2A4F72ECEF82}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="69">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -249,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +320,14 @@
     <font>
       <sz val="14"/>
       <name val="Aptos Narrow (Corps)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -410,10 +418,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -477,8 +486,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -573,10 +586,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -898,15 +907,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="56.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="24" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -1901,53 +1910,57 @@
         <v>46</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="L26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="L27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14">
       <c r="L28" s="5"/>
@@ -1963,22 +1976,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K20 B21:H22">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="35" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="36" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K25 B23:G25">
+  <conditionalFormatting sqref="I21:K27 B23:G27">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1987,10 +2000,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="971" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79B7FD0F-0B09-4073-B20E-2A4F72ECEF82}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBC3F7B-3755-4C22-9541-33B15F824A5B}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="69">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -588,6 +588,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -907,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -1915,19 +1919,41 @@
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="6"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="9"/>
+      <c r="K25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14">

--- a/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1015" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A52A4EF6-00C4-4664-BC53-681CEBC01F62}"/>
+  <xr:revisionPtr revIDLastSave="1016" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD4E0FE-F97E-4D14-BA1D-88B4B5593406}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -1085,7 +1085,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>1</v>

--- a/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1016" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD4E0FE-F97E-4D14-BA1D-88B4B5593406}"/>
+  <xr:revisionPtr revIDLastSave="1095" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61528A82-A8DD-4EC5-B969-CE6E19A075FF}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="73">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -262,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,14 +335,6 @@
       <name val="Aptos Narrow (Corps)"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
@@ -360,12 +352,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -462,11 +448,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -533,27 +518,16 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -971,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -985,8 +959,8 @@
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.25" style="1" bestFit="1" customWidth="1"/>
@@ -1040,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="33" customFormat="1">
+    <row r="2" spans="1:14" s="28" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
@@ -1050,19 +1024,19 @@
       <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="D2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -1071,38 +1045,38 @@
       <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="30" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>69</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1">
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" s="28" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1111,67 +1085,78 @@
       <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="30" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26" t="s">
         <v>70</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" s="33" customFormat="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" s="33" customFormat="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="L8" s="5"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="D16" s="29"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J3">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C4 D4:K4 D2:J3">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="5" priority="47" operator="equal">
+  <conditionalFormatting sqref="C1:C2 D2:H2">
+    <cfRule type="cellIs" dxfId="5" priority="51" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="52" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1185,7 +1170,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>

--- a/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1095" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61528A82-A8DD-4EC5-B969-CE6E19A075FF}"/>
+  <xr:revisionPtr revIDLastSave="1261" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBF29730-923C-4479-A86F-8DC647CAD1AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="144">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -256,13 +256,229 @@
   </si>
   <si>
     <t>contact_from_SFCC_to_SFCC_for_createAccount_SVK</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_MYS</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>line2025test01+01@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+02@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+03@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+04@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+05@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+06@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+07@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+08@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+09@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+10@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+11@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+12@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+13@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+14@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+15@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+16@gmail.com</t>
+  </si>
+  <si>
+    <t>line2025test01+17@gmail.com</t>
+  </si>
+  <si>
+    <t>クラッシックセイセイセイセイセイセイセイセイセイ</t>
+  </si>
+  <si>
+    <t>クラッシックメイブランク</t>
+  </si>
+  <si>
+    <t>シルバーセイセイセイセイセイセイセイセイセイセイ</t>
+  </si>
+  <si>
+    <t>シルバーメイブランク</t>
+  </si>
+  <si>
+    <t>コールドセイセイセイセイセイセイセイセイセイセイ</t>
+  </si>
+  <si>
+    <t>コールドメイブランク</t>
+  </si>
+  <si>
+    <t>クラッシックセイ</t>
+  </si>
+  <si>
+    <t>セイチョウフク</t>
+  </si>
+  <si>
+    <t>メンバーステータス</t>
+  </si>
+  <si>
+    <t>マージイチ</t>
+  </si>
+  <si>
+    <t>マージニ</t>
+  </si>
+  <si>
+    <t>クラッシックメイメイメイメイメイメイメイメイメイ</t>
+  </si>
+  <si>
+    <t>クラッシックセイブランク</t>
+  </si>
+  <si>
+    <t>シルバーメイメイメイメイメイメイメイメイメイメイ</t>
+  </si>
+  <si>
+    <t>シルバーセイブランク</t>
+  </si>
+  <si>
+    <t>コールドメイメイメイメイメイメイメイメイメイメイ</t>
+  </si>
+  <si>
+    <t>コールドセイブランク</t>
+  </si>
+  <si>
+    <t>クラッシックメイ</t>
+  </si>
+  <si>
+    <t>メイチョウフク</t>
+  </si>
+  <si>
+    <t>アウト</t>
+  </si>
+  <si>
+    <t>バン</t>
+  </si>
+  <si>
+    <t>スレーブ</t>
+  </si>
+  <si>
+    <t>マスタ</t>
+  </si>
+  <si>
+    <t>2000-06-01</t>
+  </si>
+  <si>
+    <t>2000-07-01</t>
+  </si>
+  <si>
+    <t>2000-08-01</t>
+  </si>
+  <si>
+    <t>2000-08-02</t>
+  </si>
+  <si>
+    <t>2000-08-03</t>
+  </si>
+  <si>
+    <t>2000-08-04</t>
+  </si>
+  <si>
+    <t>2000-08-05</t>
+  </si>
+  <si>
+    <t>2000-08-06</t>
+  </si>
+  <si>
+    <t>2000-08-07</t>
+  </si>
+  <si>
+    <t>2000-08-09</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_1</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_2</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_3</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_4</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_5</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_6</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_7</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_8</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_9</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_10</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_11</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_12</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_13</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_14</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_15</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_16</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_17</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_18</t>
+  </si>
+  <si>
+    <t>line2025testamodifier@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,8 +569,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +662,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
       </patternFill>
     </fill>
   </fills>
@@ -448,10 +721,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,9 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,12 +796,210 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -945,19 +1414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="56.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="47.125" style="23" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="47.5" style="1" customWidth="1"/>
@@ -970,193 +1439,393 @@
     <col min="15" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="15.75">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="28" customFormat="1">
-      <c r="A2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" spans="1:14" s="28" customFormat="1">
-      <c r="A3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="27"/>
+    <row r="2" spans="1:14" s="27" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" customFormat="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" customFormat="1">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="L6" s="5"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="D16" s="29"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" customFormat="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" customFormat="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" customFormat="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" customFormat="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" customFormat="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" customFormat="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" customFormat="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C4 D4:K4 D2:J3">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <phoneticPr fontId="16" type="noConversion"/>
+  <conditionalFormatting sqref="B2:J2">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2 D2:H2">
-    <cfRule type="cellIs" dxfId="5" priority="51" operator="equal">
+  <conditionalFormatting sqref="C1:C2">
+    <cfRule type="cellIs" dxfId="19" priority="63" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="64" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1167,918 +1836,1835 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C6B591-6143-4B37-82AD-82FE5F853404}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="63.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="10"/>
+      <c r="M1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18.75">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="10"/>
+      <c r="M5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="18.75">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="10" t="s">
+      <c r="M7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="11" t="s">
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="10" t="s">
+      <c r="M9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="12" t="s">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="10" t="s">
+      <c r="M10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="13" t="s">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="10" t="s">
+      <c r="M11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="20" t="s">
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="21" t="s">
+      <c r="M12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="20" t="s">
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="21" t="s">
+      <c r="M13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="20" t="s">
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="20" t="s">
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="21" t="s">
+      <c r="M15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="20" t="s">
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="21" t="s">
+      <c r="M16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18.75">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="20" t="s">
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="21" t="s">
+      <c r="M17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18.75">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="20" t="s">
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="21"/>
+      <c r="M18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" ht="18.75">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="20" t="s">
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="21" t="s">
+      <c r="M19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="20" t="s">
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="21" t="s">
+      <c r="M20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="20" t="s">
+      <c r="B21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="21"/>
+      <c r="M21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14" ht="18.75">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="20" t="s">
+      <c r="B22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="21"/>
+      <c r="M22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="20"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75">
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.75">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="27" customFormat="1" ht="18.75">
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="26"/>
+    </row>
+    <row r="36" spans="1:14" ht="68.25">
+      <c r="A36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="48">
+      <c r="A37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="48">
+      <c r="A38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="68.25">
+      <c r="A39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="48">
+      <c r="A40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="48">
+      <c r="A41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="68.25">
+      <c r="A42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="48">
+      <c r="A43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="48">
+      <c r="A44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="48">
+      <c r="A45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="47.25">
+      <c r="A46" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="48">
+      <c r="A47" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="48">
+      <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="48">
+      <c r="A49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="48">
+      <c r="A50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="48">
+      <c r="A51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="48">
+      <c r="A52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="48">
+      <c r="A53" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B24:J26">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:K19 B20:H21 I20:K22 B22:G22">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:K23">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:H24">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H26">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B53">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -2086,7 +3672,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
+  <conditionalFormatting sqref="D36:D53 G36:G53 I36:K53">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -2096,6 +3682,24 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{66BF1495-70E1-4F2A-BD05-311C1CC5AA31}"/>
+    <hyperlink ref="C36" r:id="rId2" xr:uid="{C792CE7F-966E-4223-BFC9-62E494988A15}"/>
+    <hyperlink ref="C37" r:id="rId3" xr:uid="{CF3CC7FD-B163-4AFE-BC1B-4A53C226CB36}"/>
+    <hyperlink ref="C38" r:id="rId4" xr:uid="{F48A969F-CC5A-4A8E-8891-CA48E367A549}"/>
+    <hyperlink ref="C39" r:id="rId5" xr:uid="{037D58B9-64AF-4203-99DC-18466AB0FC89}"/>
+    <hyperlink ref="C40" r:id="rId6" xr:uid="{28FFCD37-C0AD-4CFD-BE49-91550C7518AF}"/>
+    <hyperlink ref="C41" r:id="rId7" xr:uid="{12CB3189-187D-492B-8F61-C49F43AE37FE}"/>
+    <hyperlink ref="C42" r:id="rId8" xr:uid="{1825CA67-DBC8-4968-B9CA-39DF6850F1C0}"/>
+    <hyperlink ref="C43" r:id="rId9" xr:uid="{45096362-15C3-480F-BAAC-58C8B1BD5B46}"/>
+    <hyperlink ref="C44" r:id="rId10" xr:uid="{B8AD9368-7720-4016-AEF8-D159F4031783}"/>
+    <hyperlink ref="C45" r:id="rId11" xr:uid="{4EC9A6DB-9FB7-44BA-A3A0-30BAF40BEB86}"/>
+    <hyperlink ref="C46" r:id="rId12" xr:uid="{81DE0211-BD1E-43F2-A681-6CB1E32E2CFC}"/>
+    <hyperlink ref="C48" r:id="rId13" xr:uid="{40685BB2-7BA9-4E61-ABA9-D080DAA575B9}"/>
+    <hyperlink ref="C49" r:id="rId14" xr:uid="{DC47086F-87BA-439D-BC4D-4A2B9BA51E87}"/>
+    <hyperlink ref="C50" r:id="rId15" xr:uid="{BAB6FFAC-4E0C-4359-9593-C4132E526F78}"/>
+    <hyperlink ref="C51" r:id="rId16" xr:uid="{D1A766F5-CDB0-441B-B8C8-EC57FBB6EE40}"/>
+    <hyperlink ref="C52" r:id="rId17" xr:uid="{1D38C890-3DA4-4E81-AEC4-AC5A846FCD01}"/>
+    <hyperlink ref="C53" r:id="rId18" xr:uid="{85682B3D-9535-45B2-84ED-96027AE721EA}"/>
+    <hyperlink ref="N46" r:id="rId19" xr:uid="{928C02BD-0773-4A44-9F70-F280A1DED421}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/2_createAccount.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1261" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBF29730-923C-4479-A86F-8DC647CAD1AC}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="13_ncr:1_{AEB6D13F-69ED-4610-A698-C4C8E3229C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE45B6E7-3B57-4494-8022-551264C53844}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="-15420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="195">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -267,208 +268,361 @@
     <t>line2025test01+01@gmail.com</t>
   </si>
   <si>
-    <t>line2025test01+02@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+03@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+04@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+05@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+06@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+07@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+08@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+09@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+10@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+11@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+12@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+13@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+14@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+15@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+16@gmail.com</t>
-  </si>
-  <si>
-    <t>line2025test01+17@gmail.com</t>
-  </si>
-  <si>
     <t>クラッシックセイセイセイセイセイセイセイセイセイ</t>
   </si>
   <si>
-    <t>クラッシックメイブランク</t>
-  </si>
-  <si>
-    <t>シルバーセイセイセイセイセイセイセイセイセイセイ</t>
-  </si>
-  <si>
-    <t>シルバーメイブランク</t>
-  </si>
-  <si>
-    <t>コールドセイセイセイセイセイセイセイセイセイセイ</t>
-  </si>
-  <si>
-    <t>コールドメイブランク</t>
-  </si>
-  <si>
-    <t>クラッシックセイ</t>
-  </si>
-  <si>
-    <t>セイチョウフク</t>
-  </si>
-  <si>
-    <t>メンバーステータス</t>
-  </si>
-  <si>
-    <t>マージイチ</t>
-  </si>
-  <si>
-    <t>マージニ</t>
-  </si>
-  <si>
     <t>クラッシックメイメイメイメイメイメイメイメイメイ</t>
   </si>
   <si>
-    <t>クラッシックセイブランク</t>
-  </si>
-  <si>
-    <t>シルバーメイメイメイメイメイメイメイメイメイメイ</t>
-  </si>
-  <si>
-    <t>シルバーセイブランク</t>
-  </si>
-  <si>
-    <t>コールドメイメイメイメイメイメイメイメイメイメイ</t>
-  </si>
-  <si>
-    <t>コールドセイブランク</t>
-  </si>
-  <si>
-    <t>クラッシックメイ</t>
-  </si>
-  <si>
-    <t>メイチョウフク</t>
-  </si>
-  <si>
-    <t>アウト</t>
-  </si>
-  <si>
-    <t>バン</t>
-  </si>
-  <si>
-    <t>スレーブ</t>
-  </si>
-  <si>
-    <t>マスタ</t>
-  </si>
-  <si>
-    <t>2000-06-01</t>
-  </si>
-  <si>
-    <t>2000-07-01</t>
-  </si>
-  <si>
-    <t>2000-08-01</t>
-  </si>
-  <si>
-    <t>2000-08-02</t>
-  </si>
-  <si>
-    <t>2000-08-03</t>
-  </si>
-  <si>
-    <t>2000-08-04</t>
-  </si>
-  <si>
-    <t>2000-08-05</t>
-  </si>
-  <si>
-    <t>2000-08-06</t>
-  </si>
-  <si>
-    <t>2000-08-07</t>
-  </si>
-  <si>
-    <t>2000-08-09</t>
-  </si>
-  <si>
     <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_1</t>
   </si>
   <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_2</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_3</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_4</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_5</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_6</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_7</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_8</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_9</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_10</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_11</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_12</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_13</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_14</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_15</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_16</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_17</t>
-  </si>
-  <si>
-    <t>contact_from_SFCC_to_SFCC_for_createAccount_JPN_18</t>
-  </si>
-  <si>
-    <t>line2025testamodifier@gmail.com</t>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>マーニ</t>
+  </si>
+  <si>
+    <t>マニ</t>
+  </si>
+  <si>
+    <t>yuki.tashiroLudofix@yopmail.com</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_SAU</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>0957465888</t>
+  </si>
+  <si>
+    <t>沛倚</t>
+  </si>
+  <si>
+    <t>佳旻</t>
+  </si>
+  <si>
+    <t>美君</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>0957465678</t>
+  </si>
+  <si>
+    <t>0957461234</t>
+  </si>
+  <si>
+    <t>0957469876</t>
+  </si>
+  <si>
+    <t>沈</t>
+  </si>
+  <si>
+    <t>佳容</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_1</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_2</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_3</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_4</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>prénom</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>meme prenom et nom</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>plusieurs caractères</t>
+  </si>
+  <si>
+    <t>différentes</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>1 seul caractère</t>
+  </si>
+  <si>
+    <t>meme prenom et nom différent</t>
+  </si>
+  <si>
+    <t>meme dob</t>
+  </si>
+  <si>
+    <t>no M&amp;M</t>
+  </si>
+  <si>
+    <t>prenom différent et meme nom</t>
+  </si>
+  <si>
+    <t>FRA (ou autre)</t>
+  </si>
+  <si>
+    <t>clerical ?</t>
+  </si>
+  <si>
+    <t>+886957465888</t>
+  </si>
+  <si>
+    <t>+886957465678</t>
+  </si>
+  <si>
+    <t>+886957461234</t>
+  </si>
+  <si>
+    <t>+886957469876</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_5</t>
+  </si>
+  <si>
+    <t>1990-03-29</t>
+  </si>
+  <si>
+    <t>碧鳳</t>
+  </si>
+  <si>
+    <t>詠心</t>
+  </si>
+  <si>
+    <t>紹恩</t>
+  </si>
+  <si>
+    <t>0969011005</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_6</t>
+  </si>
+  <si>
+    <t>朱</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <t>0969014563</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_7</t>
+  </si>
+  <si>
+    <t>0969014598</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_8</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>曾</t>
+  </si>
+  <si>
+    <t>0969014333</t>
+  </si>
+  <si>
+    <t>+886969014563</t>
+  </si>
+  <si>
+    <t>+886969011005</t>
+  </si>
+  <si>
+    <t>+886969014598</t>
+  </si>
+  <si>
+    <t>+886969014333</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_9</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_10</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_11</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_TWN_12</t>
+  </si>
+  <si>
+    <t>0969012345</t>
+  </si>
+  <si>
+    <t>0969078564</t>
+  </si>
+  <si>
+    <t>0969014776</t>
+  </si>
+  <si>
+    <t>0965554333</t>
+  </si>
+  <si>
+    <t>景月</t>
+  </si>
+  <si>
+    <t>佳萱</t>
+  </si>
+  <si>
+    <t>巧珍</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>1990-03-28</t>
+  </si>
+  <si>
+    <t>+886969012345</t>
+  </si>
+  <si>
+    <t>+886969078564</t>
+  </si>
+  <si>
+    <t>+886969014776</t>
+  </si>
+  <si>
+    <t>+886965554333</t>
+  </si>
+  <si>
+    <t>秉嬿</t>
+  </si>
+  <si>
+    <t>宜帆</t>
+  </si>
+  <si>
+    <t>玉芳</t>
+  </si>
+  <si>
+    <t>毓珮</t>
+  </si>
+  <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>許</t>
+  </si>
+  <si>
+    <t>2000-03-28</t>
+  </si>
+  <si>
+    <t>2000-03-20</t>
+  </si>
+  <si>
+    <t>0968201477</t>
+  </si>
+  <si>
+    <t>0968201478</t>
+  </si>
+  <si>
+    <t>0968201470</t>
+  </si>
+  <si>
+    <t>0968201471</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_FRA_13</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_FRA_14</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_FRA_15</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_SFCC_for_createAccount_FRA_16</t>
+  </si>
+  <si>
+    <t>+33968201477</t>
+  </si>
+  <si>
+    <t>+33968201478</t>
+  </si>
+  <si>
+    <t>+33968201470</t>
+  </si>
+  <si>
+    <t>+33968201471</t>
+  </si>
+  <si>
+    <t>plusieurs caractères eng</t>
+  </si>
+  <si>
+    <t>1 seul caractère eng</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>0957465989</t>
+  </si>
+  <si>
+    <t>nathalie</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>0957465667</t>
+  </si>
+  <si>
+    <t>+886957465989</t>
+  </si>
+  <si>
+    <t>1 seul caractère et 3 caractères</t>
+  </si>
+  <si>
+    <t>+886957465667</t>
+  </si>
+  <si>
+    <t>0968201122</t>
+  </si>
+  <si>
+    <t>0968203344</t>
+  </si>
+  <si>
+    <t>2003-03-28</t>
+  </si>
+  <si>
+    <t>lea</t>
+  </si>
+  <si>
+    <t>no M&amp;M  clerical</t>
   </si>
 </sst>
 </file>
@@ -478,7 +632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,30 +752,55 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7030A0"/>
       <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF242424"/>
+      <name val="FluentSystemIcons"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="Aptos Narrow"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,8 +849,20 @@
         <bgColor rgb="FFC0E6F5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -720,12 +911,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,44 +1082,224 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1414,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="B22" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -1483,12 +1943,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="27" customFormat="1">
+    <row r="2" spans="1:14" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>1</v>
@@ -1496,14 +1956,14 @@
       <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>1</v>
+      <c r="E2" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>1</v>
@@ -1512,11 +1972,11 @@
         <v>4</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="24"/>
       <c r="L2" s="25" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>15</v>
@@ -1524,308 +1984,1644 @@
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" customFormat="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
+      <c r="A4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
+      <c r="A6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:14" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
+      <c r="A12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:14" customFormat="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" customFormat="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14" customFormat="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
+      <c r="A16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" customFormat="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" customFormat="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" customFormat="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14" customFormat="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" customFormat="1">
+      <c r="A21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" customFormat="1">
+      <c r="A23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" customFormat="1">
+      <c r="A24" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="1:14" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="26"/>
+    </row>
+    <row r="26" spans="1:14" customFormat="1">
+      <c r="A26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" customFormat="1">
+      <c r="A27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="26"/>
+    </row>
+    <row r="28" spans="1:14" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="26"/>
+    </row>
+    <row r="29" spans="1:14" customFormat="1">
+      <c r="A29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30" spans="1:14" customFormat="1">
+      <c r="A30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" customFormat="1">
+      <c r="A31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="1:14" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="26"/>
+    </row>
+    <row r="33" spans="1:14" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" customFormat="1">
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" customFormat="1">
+      <c r="A36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="26"/>
+    </row>
+    <row r="37" spans="1:14" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="26"/>
+    </row>
+    <row r="38" spans="1:14" customFormat="1">
+      <c r="A38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="26"/>
+    </row>
+    <row r="39" spans="1:14" customFormat="1">
+      <c r="A39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:14" customFormat="1">
+      <c r="A40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="26"/>
+    </row>
+    <row r="41" spans="1:14" customFormat="1">
+      <c r="A41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+  <conditionalFormatting sqref="B2:D37 B37:B41">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="19" priority="63" operator="equal">
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="35" priority="81" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="82" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:D41">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J25">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:J37">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:L33">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:L41">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1835,11 +3631,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F3E94-37C6-43F3-A50A-778DC89C7CCB}">
+  <dimension ref="B7:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:7">
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="2:7" ht="19.5" thickBot="1">
+      <c r="B8" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B9" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" thickBot="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B11" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" thickBot="1">
+      <c r="B12" s="51"/>
+      <c r="C12" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B13" s="51"/>
+      <c r="C13" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" thickBot="1">
+      <c r="B14" s="51"/>
+      <c r="C14" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B15" s="51"/>
+      <c r="C15" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" customHeight="1" thickBot="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B17" s="51"/>
+      <c r="C17" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B18" s="51"/>
+      <c r="C18" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B19" s="51"/>
+      <c r="C19" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B20" s="51"/>
+      <c r="C20" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B21" s="51"/>
+      <c r="C21" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="30" customHeight="1" thickBot="1">
+      <c r="B22" s="51"/>
+      <c r="C22" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+    </row>
+    <row r="23" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B23" s="51"/>
+      <c r="C23" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B24" s="51"/>
+      <c r="C24" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B25" s="51"/>
+      <c r="C25" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B26" s="52"/>
+      <c r="C26" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B27" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B28" s="51"/>
+      <c r="C28" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B29" s="51"/>
+      <c r="C29" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="30.75" thickBot="1">
+      <c r="B30" s="51"/>
+      <c r="C30" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B31" s="52"/>
+      <c r="C31" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="35"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="35"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:B26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:D27"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C6B591-6143-4B37-82AD-82FE5F853404}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2907,799 +5134,446 @@
       </c>
       <c r="N26" s="26"/>
     </row>
-    <row r="36" spans="1:14" ht="68.25">
-      <c r="A36" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="29" t="s">
+    <row r="27" spans="1:14" ht="18.75">
+      <c r="A27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75">
+      <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="27" customFormat="1" ht="18.75">
+      <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="1:14" ht="18.75">
+      <c r="A32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="26"/>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="18.75">
+      <c r="A33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" s="27" customFormat="1" ht="18.75">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" ht="68.25">
+      <c r="A35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="19" t="s">
+      <c r="D35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N36" s="20" t="s">
+      <c r="M35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="48">
-      <c r="A37" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N37" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="48">
-      <c r="A38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N38" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="68.25">
-      <c r="A39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="48">
-      <c r="A40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N40" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="48">
-      <c r="A41" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N41" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="68.25">
-      <c r="A42" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="48">
-      <c r="A43" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N43" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="48">
-      <c r="A44" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="48">
-      <c r="A45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="47.25">
-      <c r="A46" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N46" s="41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="48">
-      <c r="A47" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N47" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="48">
-      <c r="A48" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="48">
-      <c r="A49" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N49" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="48">
-      <c r="A50" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N50" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="48">
-      <c r="A51" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="48">
-      <c r="A52" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N52" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="48">
-      <c r="A53" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K53" s="5"/>
-      <c r="L53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N53" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B24:J26">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+  <conditionalFormatting sqref="B28:B35">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:D27">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:J26">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:K19 B20:H21 I20:K22 B22:G22">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="37" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="38" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:K23">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="36" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:H24">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:H26">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="30" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:J34">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:L28 C29:K30">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35 G35 I35:K35">
+    <cfRule type="cellIs" dxfId="5" priority="25" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:K27">
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B53">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D53 G36:G53 I36:K53">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{66BF1495-70E1-4F2A-BD05-311C1CC5AA31}"/>
-    <hyperlink ref="C36" r:id="rId2" xr:uid="{C792CE7F-966E-4223-BFC9-62E494988A15}"/>
-    <hyperlink ref="C37" r:id="rId3" xr:uid="{CF3CC7FD-B163-4AFE-BC1B-4A53C226CB36}"/>
-    <hyperlink ref="C38" r:id="rId4" xr:uid="{F48A969F-CC5A-4A8E-8891-CA48E367A549}"/>
-    <hyperlink ref="C39" r:id="rId5" xr:uid="{037D58B9-64AF-4203-99DC-18466AB0FC89}"/>
-    <hyperlink ref="C40" r:id="rId6" xr:uid="{28FFCD37-C0AD-4CFD-BE49-91550C7518AF}"/>
-    <hyperlink ref="C41" r:id="rId7" xr:uid="{12CB3189-187D-492B-8F61-C49F43AE37FE}"/>
-    <hyperlink ref="C42" r:id="rId8" xr:uid="{1825CA67-DBC8-4968-B9CA-39DF6850F1C0}"/>
-    <hyperlink ref="C43" r:id="rId9" xr:uid="{45096362-15C3-480F-BAAC-58C8B1BD5B46}"/>
-    <hyperlink ref="C44" r:id="rId10" xr:uid="{B8AD9368-7720-4016-AEF8-D159F4031783}"/>
-    <hyperlink ref="C45" r:id="rId11" xr:uid="{4EC9A6DB-9FB7-44BA-A3A0-30BAF40BEB86}"/>
-    <hyperlink ref="C46" r:id="rId12" xr:uid="{81DE0211-BD1E-43F2-A681-6CB1E32E2CFC}"/>
-    <hyperlink ref="C48" r:id="rId13" xr:uid="{40685BB2-7BA9-4E61-ABA9-D080DAA575B9}"/>
-    <hyperlink ref="C49" r:id="rId14" xr:uid="{DC47086F-87BA-439D-BC4D-4A2B9BA51E87}"/>
-    <hyperlink ref="C50" r:id="rId15" xr:uid="{BAB6FFAC-4E0C-4359-9593-C4132E526F78}"/>
-    <hyperlink ref="C51" r:id="rId16" xr:uid="{D1A766F5-CDB0-441B-B8C8-EC57FBB6EE40}"/>
-    <hyperlink ref="C52" r:id="rId17" xr:uid="{1D38C890-3DA4-4E81-AEC4-AC5A846FCD01}"/>
-    <hyperlink ref="C53" r:id="rId18" xr:uid="{85682B3D-9535-45B2-84ED-96027AE721EA}"/>
-    <hyperlink ref="N46" r:id="rId19" xr:uid="{928C02BD-0773-4A44-9F70-F280A1DED421}"/>
+    <hyperlink ref="C35" r:id="rId2" xr:uid="{C792CE7F-966E-4223-BFC9-62E494988A15}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{8FB427F1-ACB5-4545-B210-0A5732D4AE99}"/>
+    <hyperlink ref="N29" r:id="rId4" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{9E1BB609-002A-49A2-A34A-9B9BDEA49CD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
